--- a/Dummy Data Pendapat Kustomer.xlsx
+++ b/Dummy Data Pendapat Kustomer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Harga</t>
+  </si>
+  <si>
+    <t>Hasil Analisa</t>
   </si>
   <si>
     <t>Sepatu A</t>
@@ -60,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,16 +84,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,31 +114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +169,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -189,8 +184,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -198,27 +215,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,187 +236,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,21 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -464,6 +458,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,11 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,156 +553,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1018,18 +1033,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,167 +1061,179 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
         <f>1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <f t="shared" ref="A4:A17" si="0">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dummy Data Pendapat Kustomer.xlsx
+++ b/Dummy Data Pendapat Kustomer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Mahal</t>
-  </si>
-  <si>
-    <t>Sepatu B</t>
-  </si>
-  <si>
-    <t>Ga Ada</t>
   </si>
 </sst>
 </file>
@@ -1033,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
@@ -1104,7 +1098,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A17" si="0">1+A3</f>
+        <f>1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1123,7 +1117,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <f t="shared" si="0"/>
+        <f>1+A4</f>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1139,101 +1133,6 @@
         <v>11</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dummy Data Pendapat Kustomer.xlsx
+++ b/Dummy Data Pendapat Kustomer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Harga</t>
   </si>
   <si>
-    <t>Hasil Analisa</t>
-  </si>
-  <si>
     <t>Sepatu A</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Murah</t>
+  </si>
+  <si>
+    <t>Ga Ada</t>
   </si>
   <si>
     <t>Jelek</t>
@@ -215,18 +215,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -547,162 +541,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1027,19 +1015,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,84 +1043,77 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <f>1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
         <f>1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <f>1+A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
